--- a/excel/VA-Select-Delete.xlsx
+++ b/excel/VA-Select-Delete.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="288" yWindow="456" windowWidth="22692" windowHeight="9144"/>
   </bookViews>
   <sheets>
-    <sheet name="VA-Create" sheetId="3" r:id="rId1"/>
+    <sheet name="VA-Select-Delete" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -563,7 +563,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
